--- a/Importacion.xlsx
+++ b/Importacion.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quezada\Desktop\SS22\Data Science\Lab2_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6633D45A-C123-4086-B971-E431302CEC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA9178A-E0E7-4FB7-B7A8-E4179EB5DE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Importacion" sheetId="1" r:id="rId1"/>
@@ -25,26 +25,25 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>Gasolina superior</t>
-  </si>
-  <si>
-    <t>Gasolina regular</t>
-  </si>
-  <si>
     <t>Diesel</t>
   </si>
   <si>
-    <t>Total
-gasolinas</t>
+    <t>Superior</t>
   </si>
   <si>
-    <t>Total importación</t>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Total_Gasolinas</t>
+  </si>
+  <si>
+    <t>Total_Importación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -883,10 +882,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -895,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
